--- a/allocation.xlsx
+++ b/allocation.xlsx
@@ -8,13 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1009dev\source\repos\xlladdins\xll_allocation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC6E366E-D8F6-4292-9E1C-0CC5634626F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11627264-169D-4A05-817F-E5A5A3DF9B3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{48BBFDBE-D43B-43F9-8E80-03F1C7F63B81}"/>
   </bookViews>
   <sheets>
-    <sheet name="time" sheetId="1" r:id="rId1"/>
+    <sheet name="ALLOCATION" sheetId="2" r:id="rId1"/>
+    <sheet name="time" sheetId="1" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="ALLOCATION">ALLOCATION!$C$5</definedName>
+    <definedName name="Corr">ALLOCATION!$C$4</definedName>
+    <definedName name="ER">ALLOCATION!$C$2:$D$2</definedName>
+    <definedName name="R_">ALLOCATION!$C$6</definedName>
+    <definedName name="Rho">ALLOCATION!$C$4</definedName>
+    <definedName name="Sigma">ALLOCATION!$C$3:$D$3</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -33,12 +42,61 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>ER</t>
+  </si>
+  <si>
+    <t>Sigma</t>
+  </si>
+  <si>
+    <t>Rho</t>
+  </si>
+  <si>
+    <t>R_</t>
+  </si>
+  <si>
+    <t>ALLOCATION</t>
+  </si>
+  <si>
+    <t>xi</t>
+  </si>
+  <si>
+    <t>sigma</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="m/d\ h:mm"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -46,16 +104,48 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -63,16 +153,56 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1"/>
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="2" xfId="2" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Input" xfId="1" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Output" xfId="2" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -383,11 +513,100 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39085BB6-724C-475E-A64B-8694B9D9A5B9}">
-  <dimension ref="B3:D3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{757A16B7-E616-4E48-9C0F-4450DB4C91A7}">
+  <dimension ref="B2:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="3" cm="1">
+        <f t="array" ref="C5">_xll.\AFBI.ALLOCATION(ER, Sigma, Rho)</f>
+        <v>2837317759216</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="5" cm="1">
+        <f t="array" ref="C7:C8">_xll.AFBI.ALLOCATION.MINIMIZE(ALLOCATION, R_)</f>
+        <v>-0.7202546756864292</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C8" s="5">
+        <v>-0.27974532431356941</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="5" cm="1">
+        <f t="array" ref="C9">_xll.AFBI.ALLOCATION.MINIMUM(ALLOCATION, R_)</f>
+        <v>-1.0425785913251048E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39085BB6-724C-475E-A64B-8694B9D9A5B9}">
+  <dimension ref="B3:D20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -407,6 +626,84 @@
         <v>1.7831444444018416</v>
       </c>
     </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="1">
+        <v>44467.594014467591</v>
+      </c>
+      <c r="C4" s="1">
+        <v>44467.623776273147</v>
+      </c>
+      <c r="D4">
+        <f>(C4-B4)*24</f>
+        <v>0.71428333333460614</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="1">
+        <v>44467.642417592593</v>
+      </c>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/allocation.xlsx
+++ b/allocation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1009dev\source\repos\xlladdins\xll_allocation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11627264-169D-4A05-817F-E5A5A3DF9B3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03685066-8E22-4F96-A207-74A04720C7D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{48BBFDBE-D43B-43F9-8E80-03F1C7F63B81}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{48BBFDBE-D43B-43F9-8E80-03F1C7F63B81}"/>
   </bookViews>
   <sheets>
     <sheet name="ALLOCATION" sheetId="2" r:id="rId1"/>
@@ -516,7 +516,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{757A16B7-E616-4E48-9C0F-4450DB4C91A7}">
   <dimension ref="B2:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -603,10 +603,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39085BB6-724C-475E-A64B-8694B9D9A5B9}">
-  <dimension ref="B3:D20"/>
+  <dimension ref="B2:D20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -614,6 +614,12 @@
     <col min="2" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <f>SUM(D3:D25)</f>
+        <v>4.3500500000081956</v>
+      </c>
+    </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
         <v>44467.452143402777</v>
@@ -642,7 +648,13 @@
       <c r="B5" s="1">
         <v>44467.642417592593</v>
       </c>
-      <c r="C5" s="1"/>
+      <c r="C5" s="1">
+        <v>44467.719610185188</v>
+      </c>
+      <c r="D5">
+        <f>(C5-B5)*24</f>
+        <v>1.8526222222717479</v>
+      </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>

--- a/allocation.xlsx
+++ b/allocation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1009dev\source\repos\xlladdins\xll_allocation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03685066-8E22-4F96-A207-74A04720C7D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FC856C2-9953-450F-A596-41610B5546DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{48BBFDBE-D43B-43F9-8E80-03F1C7F63B81}"/>
   </bookViews>
@@ -516,9 +516,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{757A16B7-E616-4E48-9C0F-4450DB4C91A7}">
   <dimension ref="B2:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -561,7 +559,7 @@
       </c>
       <c r="C5" s="3" cm="1">
         <f t="array" ref="C5">_xll.\AFBI.ALLOCATION(ER, Sigma, Rho)</f>
-        <v>2837317759216</v>
+        <v>1525745489120</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
@@ -569,7 +567,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="4">
-        <v>1</v>
+        <v>1.1499999999999999</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
@@ -578,12 +576,12 @@
       </c>
       <c r="C7" s="5" cm="1">
         <f t="array" ref="C7:C8">_xll.AFBI.ALLOCATION.MINIMIZE(ALLOCATION, R_)</f>
-        <v>-0.7202546756864292</v>
+        <v>0.50000000000001577</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C8" s="5">
-        <v>-0.27974532431356941</v>
+        <v>0.49999999999997147</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
@@ -592,7 +590,7 @@
       </c>
       <c r="C9" s="5" cm="1">
         <f t="array" ref="C9">_xll.AFBI.ALLOCATION.MINIMUM(ALLOCATION, R_)</f>
-        <v>-1.0425785913251048E-2</v>
+        <v>0.13601470508735394</v>
       </c>
     </row>
   </sheetData>
@@ -606,7 +604,7 @@
   <dimension ref="B2:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -617,7 +615,7 @@
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D2">
         <f>SUM(D3:D25)</f>
-        <v>4.3500500000081956</v>
+        <v>6.1385305555304512</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
@@ -657,8 +655,16 @@
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
+      <c r="B6" s="1">
+        <v>44468.253640162038</v>
+      </c>
+      <c r="C6" s="1">
+        <v>44468.328160185185</v>
+      </c>
+      <c r="D6">
+        <f>(C6-B6)*24</f>
+        <v>1.7884805555222556</v>
+      </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>

--- a/allocation.xlsx
+++ b/allocation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1009dev\source\repos\xlladdins\xll_allocation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FC856C2-9953-450F-A596-41610B5546DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{837A4E4C-60D9-4BF7-87ED-45EDC3771779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{48BBFDBE-D43B-43F9-8E80-03F1C7F63B81}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{48BBFDBE-D43B-43F9-8E80-03F1C7F63B81}"/>
   </bookViews>
   <sheets>
     <sheet name="ALLOCATION" sheetId="2" r:id="rId1"/>
@@ -19,10 +19,10 @@
   <definedNames>
     <definedName name="ALLOCATION">ALLOCATION!$C$5</definedName>
     <definedName name="Corr">ALLOCATION!$C$4</definedName>
-    <definedName name="ER">ALLOCATION!$C$2:$D$2</definedName>
+    <definedName name="ER">ALLOCATION!$C$2:$L$2</definedName>
     <definedName name="R_">ALLOCATION!$C$6</definedName>
     <definedName name="Rho">ALLOCATION!$C$4</definedName>
-    <definedName name="Sigma">ALLOCATION!$C$3:$D$3</definedName>
+    <definedName name="Sigma">ALLOCATION!$C$3:$L$3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>ER</t>
   </si>
@@ -80,12 +80,6 @@
   </si>
   <si>
     <t>ALLOCATION</t>
-  </si>
-  <si>
-    <t>xi</t>
-  </si>
-  <si>
-    <t>sigma</t>
   </si>
 </sst>
 </file>
@@ -514,27 +508,55 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{757A16B7-E616-4E48-9C0F-4450DB4C91A7}">
-  <dimension ref="B2:D9"/>
+  <dimension ref="B2:M14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="4">
-        <v>1.1000000000000001</v>
+        <f ca="1">RAND()</f>
+        <v>0.97684684008997302</v>
       </c>
       <c r="D2" s="4">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E2" s="4">
+        <v>1.3</v>
+      </c>
+      <c r="F2" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="G2" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="H2" s="4">
+        <v>1.6</v>
+      </c>
+      <c r="I2" s="4">
+        <v>1.7</v>
+      </c>
+      <c r="J2" s="4">
+        <v>1.8</v>
+      </c>
+      <c r="K2" s="4">
+        <v>1.9</v>
+      </c>
+      <c r="L2" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
@@ -544,8 +566,32 @@
       <c r="D3" s="4">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="I3" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="J3" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="K3" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="L3" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
@@ -553,44 +599,164 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="3" cm="1">
-        <f t="array" ref="C5">_xll.\AFBI.ALLOCATION(ER, Sigma, Rho)</f>
-        <v>1525745489120</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+        <f t="array" aca="1" ref="C5" ca="1">_xll.\AFBI.ALLOCATION(ER, Sigma, C4:AU4)</f>
+        <v>2449873847504</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="4">
-        <v>1.1499999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B7" s="2"/>
       <c r="C7" s="5" cm="1">
-        <f t="array" ref="C7:C8">_xll.AFBI.ALLOCATION.MINIMIZE(ALLOCATION, R_)</f>
-        <v>0.50000000000001577</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C8" s="5">
-        <v>0.49999999999997147</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="5" cm="1">
-        <f t="array" ref="C9">_xll.AFBI.ALLOCATION.MINIMUM(ALLOCATION, R_)</f>
-        <v>0.13601470508735394</v>
+        <f t="array" aca="1" ref="C7:L7" ca="1">TRANSPOSE(_xll.AFBI.ALLOCATION.MINIMIZE(ALLOCATION, R_))</f>
+        <v>-8.2333508016498715</v>
+      </c>
+      <c r="D7">
+        <f ca="1"/>
+        <v>3.9530598945138422</v>
+      </c>
+      <c r="E7">
+        <f ca="1"/>
+        <v>1.1282649921290944</v>
+      </c>
+      <c r="F7">
+        <f ca="1"/>
+        <v>0.89853445264050935</v>
+      </c>
+      <c r="G7">
+        <f ca="1"/>
+        <v>0.74394870221337894</v>
+      </c>
+      <c r="H7">
+        <f ca="1"/>
+        <v>0.63391344078946665</v>
+      </c>
+      <c r="I7">
+        <f ca="1"/>
+        <v>0.55189898329606357</v>
+      </c>
+      <c r="J7">
+        <f ca="1"/>
+        <v>0.48851900772802209</v>
+      </c>
+      <c r="K7">
+        <f ca="1"/>
+        <v>0.43811583713184865</v>
+      </c>
+      <c r="L7">
+        <f ca="1"/>
+        <v>0.39709549120766041</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="C8" s="5" cm="1">
+        <f t="array" aca="1" ref="C8" ca="1">_xll.AFBI.ALLOCATION.MINIMUM(ALLOCATION,R_)</f>
+        <v>1.2898625450541443</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B9" s="2"/>
+      <c r="C9" s="5"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="D11" cm="1">
+        <f t="array" aca="1" ref="D11" ca="1">_xll.\ARRAY(C2:L3)</f>
+        <v>2449275727168</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="D13" cm="1">
+        <f t="array" aca="1" ref="D13:M14" ca="1">_xll.ARRAY(D11)</f>
+        <v>0.97684684008997302</v>
+      </c>
+      <c r="E13">
+        <f ca="1"/>
+        <v>1.2</v>
+      </c>
+      <c r="F13">
+        <f ca="1"/>
+        <v>1.3</v>
+      </c>
+      <c r="G13">
+        <f ca="1"/>
+        <v>1.4</v>
+      </c>
+      <c r="H13">
+        <f ca="1"/>
+        <v>1.5</v>
+      </c>
+      <c r="I13">
+        <f ca="1"/>
+        <v>1.6</v>
+      </c>
+      <c r="J13">
+        <f ca="1"/>
+        <v>1.7</v>
+      </c>
+      <c r="K13">
+        <f ca="1"/>
+        <v>1.8</v>
+      </c>
+      <c r="L13">
+        <f ca="1"/>
+        <v>1.9</v>
+      </c>
+      <c r="M13">
+        <f ca="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="D14">
+        <f ca="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="E14">
+        <f ca="1"/>
+        <v>0.2</v>
+      </c>
+      <c r="F14">
+        <f ca="1"/>
+        <v>0.3</v>
+      </c>
+      <c r="G14">
+        <f ca="1"/>
+        <v>0.4</v>
+      </c>
+      <c r="H14">
+        <f ca="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="I14">
+        <f ca="1"/>
+        <v>0.6</v>
+      </c>
+      <c r="J14">
+        <f ca="1"/>
+        <v>0.7</v>
+      </c>
+      <c r="K14">
+        <f ca="1"/>
+        <v>0.8</v>
+      </c>
+      <c r="L14">
+        <f ca="1"/>
+        <v>0.9</v>
+      </c>
+      <c r="M14">
+        <f ca="1"/>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -603,22 +769,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39085BB6-724C-475E-A64B-8694B9D9A5B9}">
   <dimension ref="B2:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="14.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D2">
         <f>SUM(D3:D25)</f>
         <v>6.1385305555304512</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B3" s="1">
         <v>44467.452143402777</v>
       </c>
@@ -630,7 +796,7 @@
         <v>1.7831444444018416</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B4" s="1">
         <v>44467.594014467591</v>
       </c>
@@ -642,7 +808,7 @@
         <v>0.71428333333460614</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B5" s="1">
         <v>44467.642417592593</v>
       </c>
@@ -654,7 +820,7 @@
         <v>1.8526222222717479</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B6" s="1">
         <v>44468.253640162038</v>
       </c>
@@ -666,59 +832,59 @@
         <v>1.7884805555222556</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
     </row>
